--- a/Assets/DataSheet/Data_LaclizeWord.xlsx
+++ b/Assets/DataSheet/Data_LaclizeWord.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\3D Portfolio\Assets\DataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\3D-Portfolio\Assets\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,46 @@
   </si>
   <si>
     <t>Likability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complete!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>コンプリ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ト!</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -915,6 +955,20 @@
         <v>43</v>
       </c>
     </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/DataSheet/Data_LaclizeWord.xlsx
+++ b/Assets/DataSheet/Data_LaclizeWord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Title_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,15 +98,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자각몽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Lucid Dream</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明晰夢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -312,6 +300,42 @@
       </rPr>
       <t>ト!</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자각몽(가제) : Lucid Dream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明晰夢 : Lucid Dream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始める</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出る</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -767,7 +791,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -775,16 +799,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -792,13 +816,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -806,13 +830,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -820,13 +844,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -834,13 +858,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -848,27 +872,27 @@
         <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -876,97 +900,125 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DataSheet/Data_LaclizeWord.xlsx
+++ b/Assets/DataSheet/Data_LaclizeWord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,95 @@
   </si>
   <si>
     <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SFX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음소거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background Sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>効</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>果音</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>バックグラウンドサウンド</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ミュ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ト</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +535,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -478,6 +567,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1021,6 +1113,48 @@
         <v>54</v>
       </c>
     </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/DataSheet/Data_LaclizeWord.xlsx
+++ b/Assets/DataSheet/Data_LaclizeWord.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,77 @@
       </rPr>
       <t>ト</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's a success !</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功しました</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I failed ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失敗しました</t>
+  </si>
+  <si>
+    <t xml:space="preserve">성공했어요! </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패했어요 ..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 강화 입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>強</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>化です</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum reinforcement.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,10 +923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1155,6 +1226,48 @@
         <v>66</v>
       </c>
     </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
